--- a/ig/sd-add-completion-date/CodeSystem-eclaire-study-phase-source-code-system.xlsx
+++ b/ig/sd-add-completion-date/CodeSystem-eclaire-study-phase-source-code-system.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-15T14:38:49+00:00</t>
+    <t>2024-01-15T15:20:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/sd-add-completion-date/CodeSystem-eclaire-study-phase-source-code-system.xlsx
+++ b/ig/sd-add-completion-date/CodeSystem-eclaire-study-phase-source-code-system.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-15T15:20:26+00:00</t>
+    <t>2024-01-15T16:33:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
